--- a/Data Cleaning/cce_survey_data.xlsx
+++ b/Data Cleaning/cce_survey_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihan/Desktop/CCE-Data-Analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3839153E-3C37-0F43-8EA5-3FCF3B7BD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="1520" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -304,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,21 +362,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +406,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -454,7 +440,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -489,10 +474,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,16 +649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -780,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -824,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -877,7 +859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -918,7 +900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -959,7 +941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1464,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1558,7 +1540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1611,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1664,7 +1646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1858,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1911,7 +1893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2011,7 +1993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2058,7 +2040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2105,13 +2087,13 @@
         <v>85</v>
       </c>
       <c r="Q30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +2193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2264,7 +2246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2314,7 +2296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2367,7 +2349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2420,7 +2402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2526,7 +2508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +2558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +2664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2785,7 +2767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2891,7 +2873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +2926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2997,7 +2979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3153,7 +3135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3256,7 +3238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3309,7 +3291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -3362,7 +3344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -3415,7 +3397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3468,7 +3450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3521,7 +3503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3574,7 +3556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3627,7 +3609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3680,7 +3662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -3733,7 +3715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3839,7 +3821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3892,7 +3874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3945,7 +3927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3998,7 +3980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4048,7 +4030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -4083,7 +4065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4127,7 +4109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4162,7 +4144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -4212,7 +4194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4262,7 +4244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -4359,7 +4341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4406,7 +4388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4441,7 +4423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -4476,7 +4458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -4511,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -4661,7 +4643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -4711,7 +4693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -4811,7 +4793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -4861,7 +4843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4908,7 +4890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -4958,7 +4940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -5008,7 +4990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -5108,7 +5090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5158,7 +5140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5255,7 +5237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -5290,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5337,7 +5319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5387,7 +5369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -5437,7 +5419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5516,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -5584,7 +5566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +5616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -5684,7 +5666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5731,7 +5713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -5778,7 +5760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5828,7 +5810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5875,7 +5857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -5925,7 +5907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -5975,7 +5957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -6025,7 +6007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -6075,7 +6057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -6125,7 +6107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -6160,7 +6142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -6195,7 +6177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -6230,7 +6212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -6265,7 +6247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -6300,7 +6282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -6335,7 +6317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -6417,7 +6399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -6452,7 +6434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -6496,7 +6478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -6531,7 +6513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -6566,7 +6548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -6601,7 +6583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -6648,7 +6630,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -6683,7 +6665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -6724,7 +6706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -6765,7 +6747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -6806,7 +6788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -6847,7 +6829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -6888,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -6929,7 +6911,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -6970,7 +6952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -7011,7 +6993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7052,7 +7034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -7093,7 +7075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -7134,7 +7116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -7175,7 +7157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -7216,7 +7198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -7257,7 +7239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -7298,7 +7280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -7339,7 +7321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -7380,7 +7362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -7421,7 +7403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -7462,7 +7444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -7500,7 +7482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -7541,7 +7523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -7582,7 +7564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -7623,7 +7605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -7664,7 +7646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -7705,7 +7687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -7746,7 +7728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -7784,7 +7766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -7825,7 +7807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -7866,7 +7848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -7907,7 +7889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -7948,7 +7930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -7989,7 +7971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -8030,7 +8012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -8071,7 +8053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -8112,7 +8094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -8153,7 +8135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -8194,7 +8176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -8235,7 +8217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -8276,7 +8258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -8317,7 +8299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>18</v>
       </c>
